--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Sperry_Pearse/Arthur_Sperry_Pearse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Sperry_Pearse/Arthur_Sperry_Pearse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Sperry Pearse est un zoologiste américain, né le 15 mars 1877 à Crete dans le Nebraska et mort le 11 décembre 1956.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Sherman L. Pearse et de Sarah Louise née Gardner. Il obtient son Bachelor of Sciences à l’université du Nebraska en 1900, son Master of Arts en 1904 et son Ph. D. à Harvard en 1908. Il se marie avec Mary Oliver Lehmer le 22 décembre 1902, union dont il aura quatre enfants.
 De 1900 à 1904, il enseigne à l’Omaha High School, de 1904 à 1907, il est assistant-zoologiste à Harvard. Il enseigne la zoologie à la Lake High School de Chicago en 1907, à Harvard en 1908, à l’université du Michigan de 1909 à 1910. Il est professeur-assistant aux Philippines en 1911 puis à l’université du Wisconsin à partir de 1912. Il devient professeur en titre en 1919. À partir de 1927, il enseigne à l’université Duke. De 1938 à 1945, il y dirige le laboratoire de biologie marine.
